--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_4.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_4.xlsx
@@ -34,19 +34,19 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>98.18%</t>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>85.71%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>85.71%</t>
-  </si>
-  <si>
-    <t>92.31%</t>
-  </si>
-  <si>
-    <t>97.96%</t>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>60.00%</t>
   </si>
 </sst>
 </file>
@@ -438,16 +438,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +495,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,19 +515,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -535,19 +535,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -555,19 +555,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -575,19 +575,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -595,19 +595,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_4.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,19 +34,13 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>66.67%</t>
-  </si>
-  <si>
-    <t>85.71%</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>75.00%</t>
-  </si>
-  <si>
-    <t>60.00%</t>
+    <t>Tested Instance</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>Signal_15c</t>
   </si>
 </sst>
 </file>
@@ -404,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,28 +423,34 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.55</v>
       </c>
@@ -458,155 +458,179 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_4.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,13 +34,34 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>Tested Instance</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>Signal_15c</t>
+    <t>92.73%</t>
+  </si>
+  <si>
+    <t>94.44%</t>
+  </si>
+  <si>
+    <t>96.23%</t>
+  </si>
+  <si>
+    <t>62.50%</t>
+  </si>
+  <si>
+    <t>71.43%</t>
+  </si>
+  <si>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>76.92%</t>
+  </si>
+  <si>
+    <t>93.88%</t>
+  </si>
+  <si>
+    <t>95.83%</t>
   </si>
 </sst>
 </file>
@@ -398,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,80 +444,68 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -504,22 +513,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -527,22 +533,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -550,22 +553,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -573,22 +573,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -596,42 +593,36 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_4.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,34 +34,13 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>92.73%</t>
-  </si>
-  <si>
-    <t>94.44%</t>
-  </si>
-  <si>
-    <t>96.23%</t>
-  </si>
-  <si>
-    <t>62.50%</t>
-  </si>
-  <si>
-    <t>71.43%</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>76.92%</t>
-  </si>
-  <si>
-    <t>93.88%</t>
-  </si>
-  <si>
-    <t>95.83%</t>
+    <t>Tested Instance</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>Signal_15c</t>
   </si>
 </sst>
 </file>
@@ -419,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,68 +423,80 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -513,19 +504,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -533,19 +527,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -553,19 +550,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -573,19 +573,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -593,36 +596,42 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
